--- a/va_facility_data_2025-02-20/Perry Point VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Perry%20Point%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Perry Point VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Perry%20Point%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R6d1c160b70e74e04bc761107c199fcfd"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R82df192a8b914397ba4b820e5f3b6f18"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="R416f800eb3e04918aee67b3ad0f2dd83"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R4a46536d252045719fdbabb7faa23877"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="Rbb7e19b41a17482ebcbe74177609cbc6"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R5622c086c2c744b59d09d3651ec7b3a1"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R4cf85101e6d2482b8d8fa5644fb062c7"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="Rc14f8a8abdbd4be9ad4ccd8f9a0f78e1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R2f9ec4226ee34daaa75d50ad07b438e4"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="R3d8fe5a0c49843d5b49dcfa179207818"/>
   </x:sheets>
 </x:workbook>
 </file>
